--- a/漢字（かんじ）/m.xlsx
+++ b/漢字（かんじ）/m.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B5260D-0AB3-4E5A-8F56-D58C0EADFC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2285462-6951-4572-80F7-7F2F569570B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="11652" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ま" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="145">
   <si>
     <t>麻</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -727,6 +727,15 @@
     <t>命運｜めいうん
 運命｜うんめい
 懸命｜けんめい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自慢｜じまん
+我慢｜がまん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1098,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1295,6 +1304,17 @@
       </c>
       <c r="C11" s="3" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1622,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E79F0B-1791-4986-BC3A-108BB1D65B59}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/漢字（かんじ）/m.xlsx
+++ b/漢字（かんじ）/m.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2285462-6951-4572-80F7-7F2F569570B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BCFE6F-1EC4-48D7-B093-C82257821C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ま" sheetId="1" r:id="rId1"/>
@@ -594,10 +594,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中身｜なかみ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>身</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -632,11 +628,6 @@
 民族｜みんぞく
 民間｜みんかん
 市民｜しみん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代目｜だいめ
-目安｜めやす</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -736,6 +727,19 @@
   <si>
     <t>自慢｜じまん
 我慢｜がまん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中身｜なかみ
+身分｜みぶん
+身分証明｜みぶんしょうめい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代目｜だいめ
+目安｜めやす
+役目｜やくめ
+目上｜めうえ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1109,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1167,7 +1171,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>64</v>
@@ -1275,13 +1279,13 @@
       </c>
       <c r="C9" s="3"/>
       <c r="E9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="G9" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1292,7 +1296,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1311,10 +1315,10 @@
         <v>92</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1327,13 +1331,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88467CCD-DCB4-438E-AE70-707C1BB7BCAF}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
     <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1365,7 +1369,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>53</v>
@@ -1394,15 +1398,15 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="62.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>117</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1484,7 +1488,7 @@
         <v>52</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
@@ -1495,7 +1499,7 @@
         <v>61</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1558,7 +1562,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1642,8 +1646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E79F0B-1791-4986-BC3A-108BB1D65B59}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1662,7 +1666,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
@@ -1670,7 +1674,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1692,7 +1696,7 @@
         <v>61</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -1703,7 +1707,7 @@
         <v>62</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -1714,7 +1718,7 @@
         <v>75</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1730,24 +1734,24 @@
     </row>
     <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1855,16 +1859,16 @@
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1878,13 +1882,13 @@
         <v>112</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="36" x14ac:dyDescent="0.45">

--- a/漢字（かんじ）/m.xlsx
+++ b/漢字（かんじ）/m.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BCFE6F-1EC4-48D7-B093-C82257821C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC03E748-D2B6-4870-91A4-D670F6F731A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ま" sheetId="1" r:id="rId1"/>
@@ -598,10 +598,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>明星｜みょうじょう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -740,6 +736,11 @@
 目安｜めやす
 役目｜やくめ
 目上｜めうえ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明星｜みょうじょう
+明星食品｜みょうじょうしょくひん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1171,7 +1172,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>64</v>
@@ -1279,13 +1280,13 @@
       </c>
       <c r="C9" s="3"/>
       <c r="E9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1296,7 +1297,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1315,10 +1316,10 @@
         <v>92</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1331,8 +1332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88467CCD-DCB4-438E-AE70-707C1BB7BCAF}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1369,7 +1370,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>53</v>
@@ -1406,7 +1407,7 @@
         <v>117</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1488,18 +1489,18 @@
         <v>52</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="54" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>118</v>
+      <c r="C13" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1562,7 +1563,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1646,8 +1647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E79F0B-1791-4986-BC3A-108BB1D65B59}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1674,7 +1675,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1688,7 +1689,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1696,7 +1697,7 @@
         <v>61</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -1707,7 +1708,7 @@
         <v>62</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -1718,7 +1719,7 @@
         <v>75</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1734,24 +1735,24 @@
     </row>
     <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1859,16 +1860,16 @@
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1882,13 +1883,13 @@
         <v>112</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="36" x14ac:dyDescent="0.45">

--- a/漢字（かんじ）/m.xlsx
+++ b/漢字（かんじ）/m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC03E748-D2B6-4870-91A4-D670F6F731A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418096FB-7EAB-4393-BD42-08786AAAFFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,12 +384,6 @@
   <si>
     <t>迷路｜めいろ
 迷惑｜めいわく</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>絶妙｜ぜつみょう
-精妙｜せいみょう
-巧妙｜こうみょう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -741,6 +735,13 @@
   <si>
     <t>明星｜みょうじょう
 明星食品｜みょうじょうしょくひん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>絶妙｜ぜつみょう
+精妙｜せいみょう
+巧妙｜こうみょう
+奇妙｜きみょう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1126,22 +1127,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1172,7 +1173,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>64</v>
@@ -1189,10 +1190,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>30</v>
@@ -1206,10 +1207,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>30</v>
@@ -1265,10 +1266,10 @@
       </c>
       <c r="C8" s="3"/>
       <c r="E8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1280,13 +1281,13 @@
       </c>
       <c r="C9" s="3"/>
       <c r="E9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1297,29 +1298,29 @@
         <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1332,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88467CCD-DCB4-438E-AE70-707C1BB7BCAF}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1344,22 +1345,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.45">
@@ -1370,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>53</v>
@@ -1384,19 +1385,19 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="62.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -1404,10 +1405,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1421,7 +1422,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -1429,10 +1430,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1440,10 +1441,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
         <v>105</v>
-      </c>
-      <c r="C7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1489,7 +1490,7 @@
         <v>52</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1500,10 +1501,10 @@
         <v>61</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>72</v>
       </c>
@@ -1511,7 +1512,7 @@
         <v>73</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1546,13 +1547,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="108" x14ac:dyDescent="0.45">
@@ -1563,7 +1564,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1585,7 +1586,7 @@
         <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1596,7 +1597,7 @@
         <v>77</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1658,13 +1659,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -1675,7 +1676,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1697,7 +1698,7 @@
         <v>61</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -1708,7 +1709,7 @@
         <v>62</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -1719,7 +1720,7 @@
         <v>75</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1735,24 +1736,24 @@
     </row>
     <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1777,22 +1778,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="91.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -1803,7 +1804,7 @@
         <v>41</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
@@ -1843,13 +1844,13 @@
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" t="s">
         <v>96</v>
-      </c>
-      <c r="F4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.45">
@@ -1860,16 +1861,16 @@
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1880,16 +1881,16 @@
         <v>60</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="36" x14ac:dyDescent="0.45">
